--- a/Accidentes_transito_pp.xlsx
+++ b/Accidentes_transito_pp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9e6e0322c927b48/Documentos/MIS_UNAM/Segundo_semestre/Series_UNAM_HPi3/Series_UNAM_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{406B6574-61A7-4B51-85EA-59AF0F430923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CF8055C-7590-4522-AA65-98802EB53653}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{406B6574-61A7-4B51-85EA-59AF0F430923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E9A036D-276B-489C-95DF-ADC65C28A0CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9C482A4-B857-436F-9DC5-C4D7D20035FB}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +449,7 @@
         <v>37633</v>
       </c>
       <c r="B5" s="2">
-        <v>424940</v>
+        <v>403940</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -457,7 +457,7 @@
         <v>37998</v>
       </c>
       <c r="B6" s="2">
-        <v>443607</v>
+        <v>424940</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -465,7 +465,7 @@
         <v>38364</v>
       </c>
       <c r="B7" s="2">
-        <v>452233</v>
+        <v>434940</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -473,7 +473,7 @@
         <v>38729</v>
       </c>
       <c r="B8" s="2">
-        <v>471272</v>
+        <v>444940</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -481,7 +481,7 @@
         <v>39094</v>
       </c>
       <c r="B9" s="2">
-        <v>476279</v>
+        <v>444940</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -489,7 +489,7 @@
         <v>39459</v>
       </c>
       <c r="B10" s="2">
-        <v>466435</v>
+        <v>426435</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>39825</v>
       </c>
       <c r="B11" s="2">
-        <v>428467</v>
+        <v>408467</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>40190</v>
       </c>
       <c r="B12" s="2">
-        <v>427267</v>
+        <v>400267</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
